--- a/biology/Botanique/Nymphaeaceae/Nymphaeaceae.xlsx
+++ b/biology/Botanique/Nymphaeaceae/Nymphaeaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Nymphéacées (Nymphaeaceae) sont une famille de plantes à fleurs (les Angiospermes). Les deux principaux genres sont Nymphaea et Nuphar[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Nymphéacées (Nymphaeaceae) sont une famille de plantes à fleurs (les Angiospermes). Les deux principaux genres sont Nymphaea et Nuphar.
 Ce sont des plantes aquatiques, rhizomateuses, aux feuilles rondes, flottantes.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Nymphaea lui-même issu du grec nymphaia et du latin nymphaea (lis d'eau, nénuphar), les nymphes étant des créatures mythologiques peuplant la nature notamment les sources et les rivières[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Nymphaea lui-même issu du grec nymphaia et du latin nymphaea (lis d'eau, nénuphar), les nymphes étant des créatures mythologiques peuplant la nature notamment les sources et les rivières.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Suivant la classification phylogénétique APG II (2003)[3] cette famille provient d'une divergence ancienne et les plantes ne sont pas de vraies dicotylédones. La famille comprend le genre Barclaya anciennement placé dans les Barclayacées. On peut aussi inclure (optionnellement) dans cette famille les Cabombacées. En incluant les Cabombacées la famille Nymphaeaceae comprend 8 genres, en les excluant 6 genres.
-En classification phylogénétique APG III (2009)[4] cette famille est placée dans l'ordre Nymphaeales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suivant la classification phylogénétique APG II (2003) cette famille provient d'une divergence ancienne et les plantes ne sont pas de vraies dicotylédones. La famille comprend le genre Barclaya anciennement placé dans les Barclayacées. On peut aussi inclure (optionnellement) dans cette famille les Cabombacées. En incluant les Cabombacées la famille Nymphaeaceae comprend 8 genres, en les excluant 6 genres.
+En classification phylogénétique APG III (2009) cette famille est placée dans l'ordre Nymphaeales.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes herbacées vivaces, rarement annuelles, aquatiques avec des rhizomes horizontaux ou verticaux. Les feuilles sont alternes, simples, soutenues par un long pétiole, flottantes, émergées ou submergées, peltées, au limbe linéaire, sagittées, cordées ou orbiculaires, préfoliation involutée, stipules adaxiales ou absentes. Des trichomes mucilagineux sont présents dans les organes en formation. Les stomates sont anomocytiques sur l'avers des feuilles émergées, hydropotes présents sur le revers.
 Tiges non flottantes, se présentant sous la forme de rhizomes horizontaux, épais, cylindriques à légèrement déprimés, dont les parties anciennes meurent et se ramifient par accroissement apical ou bien par des souches verticales épaisses qui émettent des feuilles et des fleurs depuis l'extrémité ; nœuds trilacunaires. Dans deux cas supplémentaires il peut apparaître des tubercules. Le système vasculaire est eustelique modifié, complexe. L'aérenchyme est présent dans tous les organes.  Présence de laticifères non ramifiés. Racines apparaissant sous chacune des feuilles.
@@ -608,9 +626,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'ethnobotaniste François Couplan, plusieurs espèces au moins sont comestibles. Ainsi  le rhizome du nénuphar blanc a été consommé (après ébullition dans une ou plusieurs eaux pour éliminer les principes amers)[5]. De même pour le fruit, parfois consommé cru (ex dans le nord-ouest de l’Espagne pour le nénuphar blanc)[5], les graines (mangées en bouillie ou pain sur plusieurs continents)[5]. Des usages médicinaux ont été signalés, ainsi que tinctoriaux [5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'ethnobotaniste François Couplan, plusieurs espèces au moins sont comestibles. Ainsi  le rhizome du nénuphar blanc a été consommé (après ébullition dans une ou plusieurs eaux pour éliminer les principes amers). De même pour le fruit, parfois consommé cru (ex dans le nord-ouest de l’Espagne pour le nénuphar blanc), les graines (mangées en bouillie ou pain sur plusieurs continents). Des usages médicinaux ont été signalés, ainsi que tinctoriaux .
 </t>
         </is>
       </c>
@@ -639,16 +659,18 @@
           <t>Liste de genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (27 mars 2010)[6] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (27 mars 2010) :
 genre Barclaya
 genre Euryale
 genre Nuphar
 genre Nymphaea
 genre Ondinea
 genre Victoria
-Selon Angiosperm Phylogeny Website                        (19 mai 2010)[7] :
+Selon Angiosperm Phylogeny Website                        (19 mai 2010) :
 genre Barclaya
 genre Brasenia
 genre Cabomba
@@ -657,11 +679,11 @@
 genre Nymphaea
 genre Ondinea
 genre Victoria
-Selon DELTA Angio           (27 mars 2010)[8] :
+Selon DELTA Angio           (27 mars 2010) :
 genre Nymphaea
 genre Nuphar
 genre Ondinea
-Selon ITIS      (27 mars 2010)[9] :
+Selon ITIS      (27 mars 2010) :
 genre Euryale Salisb.
 genre Nuphar Sm.
 genre Nymphaea L.
